--- a/medicine/Œil et vue/Échelle_de_Martin-Schultz/Échelle_de_Martin-Schultz.xlsx
+++ b/medicine/Œil et vue/Échelle_de_Martin-Schultz/Échelle_de_Martin-Schultz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Martin-Schultz</t>
+          <t>Échelle_de_Martin-Schultz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>L’échelle de Martin-Schultz est un standard de détermination approximative de la couleur des yeux utilisée en anthropologie physique[1]. Elle fait partie de plusieurs échelles colorimétriques propres à des caractéristiques physiques, dont l'échelle de F. v. Luschan pour la couleur de peau et l'échelle de Fischer-Saller pour la couleur des cheveux[2]. L’Augenfarbentafel a été créée au début du XXe siècle par les anthropologues allemands Rudolf Martin et Bruno K. Schultz et comprenait à l'époque vingt échelons de couleur[3].
-Cette échelle fut utilisée par les médecins nazis pour tenter de déterminer la race des personnes qu'ils examinaient, en vain[4].
-Les couleurs sont regroupées par nuances (3 nuances) pour 16 coloris au total[5] :
-Il existe plusieurs autres échelles de la couleur des yeux, comme celle, ternaire elle aussi, de Topinard. L'échelle de Broca publiée dans un livre appelé "instructions générales"[Quand ?] et qui n'est plus utilisée comprend 20 nuances rassemblées en 4 groupes (brun, vert, bleu, gris)[7].
-L'échelle de Bertillon publiée en 1895 dans les "instructions signalétiques" donne 54 nuances en 7 groupes qui permettent de distinguer non seulement la couleur générale de l’œil mais aussi sa structure et les détails de la pigmentation[7].
-Bryn donne 36 nuances, relevées en Norvège en 1927 ; Kruse n'en reconnait que 15 en 1929[7].
-En 1930 K. Saller publie un tableau de dessins en couleur reproduisant des yeux artificiels et présente ainsi 40 nuances classées en 3 catégories[7] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>L’échelle de Martin-Schultz est un standard de détermination approximative de la couleur des yeux utilisée en anthropologie physique. Elle fait partie de plusieurs échelles colorimétriques propres à des caractéristiques physiques, dont l'échelle de F. v. Luschan pour la couleur de peau et l'échelle de Fischer-Saller pour la couleur des cheveux. L’Augenfarbentafel a été créée au début du XXe siècle par les anthropologues allemands Rudolf Martin et Bruno K. Schultz et comprenait à l'époque vingt échelons de couleur.
+Cette échelle fut utilisée par les médecins nazis pour tenter de déterminer la race des personnes qu'ils examinaient, en vain.
+Les couleurs sont regroupées par nuances (3 nuances) pour 16 coloris au total :
+Il existe plusieurs autres échelles de la couleur des yeux, comme celle, ternaire elle aussi, de Topinard. L'échelle de Broca publiée dans un livre appelé "instructions générales"[Quand ?] et qui n'est plus utilisée comprend 20 nuances rassemblées en 4 groupes (brun, vert, bleu, gris).
+L'échelle de Bertillon publiée en 1895 dans les "instructions signalétiques" donne 54 nuances en 7 groupes qui permettent de distinguer non seulement la couleur générale de l’œil mais aussi sa structure et les détails de la pigmentation.
+Bryn donne 36 nuances, relevées en Norvège en 1927 ; Kruse n'en reconnait que 15 en 1929.
+En 1930 K. Saller publie un tableau de dessins en couleur reproduisant des yeux artificiels et présente ainsi 40 nuances classées en 3 catégories :
 Yeux bruns, de P1 à P8 en allant du plus pigmenté au moins pigmenté.
 Yeux verts, de M1 à M2 et autres yeux panachés. Cependant de multiples coloris relevés dans cette série ne semblent pas exister dans la réalité, à part les M5, M6, M14 et M21.
 Yeux bleus à gris, de S1 à S10 en allant du plus au moins pigmenté.</t>
